--- a/Pei_requests.xlsx
+++ b/Pei_requests.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18576" windowHeight="6192"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18576" windowHeight="6192" firstSheet="7" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="Pei 2004" sheetId="1" r:id="rId1"/>
@@ -425,7 +425,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E8" sqref="B8:E8"/>
     </sheetView>
   </sheetViews>
@@ -580,8 +580,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13:E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -793,6 +793,22 @@
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>17</v>
+      </c>
+      <c r="B13">
+        <f>SUM(B2:B12)</f>
+        <v>41</v>
+      </c>
+      <c r="C13">
+        <f t="shared" ref="C13:E13" si="0">SUM(C2:C12)</f>
+        <v>96</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -805,7 +821,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="E13" sqref="B13:E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1016,6 +1032,22 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13">
+        <f>SUM(B2:B12)</f>
+        <v>48</v>
+      </c>
+      <c r="C13">
+        <f t="shared" ref="C13:E13" si="0">SUM(C2:C12)</f>
+        <v>83</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>119</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
     </row>
@@ -1028,8 +1060,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13:E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1241,6 +1273,22 @@
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>17</v>
+      </c>
+      <c r="B13">
+        <f>SUM(B2:B12)</f>
+        <v>51</v>
+      </c>
+      <c r="C13">
+        <f t="shared" ref="C13:E13" si="0">SUM(C2:C12)</f>
+        <v>125</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>143</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1253,7 +1301,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="B13" sqref="B13:E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1465,6 +1513,22 @@
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>17</v>
+      </c>
+      <c r="B13">
+        <f>SUM(B2:B12)</f>
+        <v>55</v>
+      </c>
+      <c r="C13">
+        <f t="shared" ref="C13:E13" si="0">SUM(C2:C12)</f>
+        <v>131</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>141</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1476,8 +1540,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13:E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1716,8 +1780,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H11" sqref="G11:H11"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E13" sqref="B13:E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1956,8 +2020,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12:E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2152,6 +2216,22 @@
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>17</v>
+      </c>
+      <c r="B12">
+        <f>SUM(B2:B11)</f>
+        <v>24</v>
+      </c>
+      <c r="C12">
+        <f t="shared" ref="C12:E12" si="0">SUM(C2:C11)</f>
+        <v>43</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>74</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -2163,8 +2243,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12:E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2359,6 +2439,22 @@
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>17</v>
+      </c>
+      <c r="B12">
+        <f>SUM(B2:B11)</f>
+        <v>27</v>
+      </c>
+      <c r="C12">
+        <f t="shared" ref="C12:E12" si="0">SUM(C2:C11)</f>
+        <v>59</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>86</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -2370,8 +2466,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12:E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2566,6 +2662,22 @@
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>17</v>
+      </c>
+      <c r="B12">
+        <f>SUM(B2:B11)</f>
+        <v>27</v>
+      </c>
+      <c r="C12">
+        <f t="shared" ref="C12:E12" si="0">SUM(C2:C11)</f>
+        <v>89</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>83</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -2577,8 +2689,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12:E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2773,6 +2885,22 @@
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>17</v>
+      </c>
+      <c r="B12">
+        <f>SUM(B2:B11)</f>
+        <v>36</v>
+      </c>
+      <c r="C12">
+        <f t="shared" ref="C12:E12" si="0">SUM(C2:C11)</f>
+        <v>92</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>73</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -2784,8 +2912,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13:E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2997,6 +3125,22 @@
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>17</v>
+      </c>
+      <c r="B13">
+        <f>SUM(B2:B12)</f>
+        <v>30</v>
+      </c>
+      <c r="C13">
+        <f t="shared" ref="C13:E13" si="0">SUM(C2:C12)</f>
+        <v>79</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>97</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -3008,8 +3152,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13:E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3221,6 +3365,22 @@
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>17</v>
+      </c>
+      <c r="B13">
+        <f>SUM(B2:B12)</f>
+        <v>33</v>
+      </c>
+      <c r="C13">
+        <f t="shared" ref="C13:E13" si="0">SUM(C2:C12)</f>
+        <v>97</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>108</v>
+      </c>
+      <c r="E13">
+        <f>SUM(E2:E12)</f>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -3233,7 +3393,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="B13" sqref="B13:E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3445,6 +3605,22 @@
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>17</v>
+      </c>
+      <c r="B13">
+        <f>SUM(B2:B12)</f>
+        <v>47</v>
+      </c>
+      <c r="C13">
+        <f t="shared" ref="C13:E13" si="0">SUM(C2:C12)</f>
+        <v>113</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>107</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -3456,8 +3632,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13:E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3670,6 +3846,22 @@
       <c r="A13" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="B13">
+        <f>SUM(B2:B12)</f>
+        <v>36</v>
+      </c>
+      <c r="C13">
+        <f t="shared" ref="C13:E13" si="0">SUM(C2:C12)</f>
+        <v>118</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
